--- a/src/main/resources/objectLocator/Common.xlsx
+++ b/src/main/resources/objectLocator/Common.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583C2508-103B-4FA3-84DF-6C7DDC0916DC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2994F9-F0C1-484D-84E5-352BF6B1E15F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="1860" windowWidth="20490" windowHeight="3630" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="Property" sheetId="7" r:id="rId2"/>
+    <sheet name="Homepage" sheetId="2" r:id="rId3"/>
+    <sheet name="FileWindowObjects" sheetId="3" r:id="rId4"/>
+    <sheet name="ReportBuilder" sheetId="4" r:id="rId5"/>
+    <sheet name="Export" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,46 +25,541 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="176">
   <si>
     <t>ObjReference</t>
   </si>
   <si>
+    <t>ObjectLocator</t>
+  </si>
+  <si>
+    <t>ParentLocator</t>
+  </si>
+  <si>
     <t>txtUserName</t>
   </si>
   <si>
+    <t>ObjectIdentifier^txtUSER_NAME||ObjectType^Textbox</t>
+  </si>
+  <si>
     <t>txtPassword</t>
   </si>
   <si>
+    <t>ObjectIdentifier^txtPassword||ObjectType^PasswordBox</t>
+  </si>
+  <si>
+    <t>txtClientID</t>
+  </si>
+  <si>
+    <t>ObjectIdentifier^txtClient_Number||ObjectType^Textbox</t>
+  </si>
+  <si>
     <t>btnLogIn</t>
   </si>
   <si>
+    <t>ObjectIdentifier^Log in||ObjectType^SubmitButton</t>
+  </si>
+  <si>
+    <t>pgAMTLogin</t>
+  </si>
+  <si>
+    <t>pgAMTHome</t>
+  </si>
+  <si>
+    <t>panelNavigationBreadCrumb</t>
+  </si>
+  <si>
+    <t>ObjectType^Panel||ObjectIdentifier^module_bar</t>
+  </si>
+  <si>
+    <t>panelQuickLinks</t>
+  </si>
+  <si>
+    <t>lnkAddNewStore</t>
+  </si>
+  <si>
+    <t>ObjectType^Link||textContent^Add New Store</t>
+  </si>
+  <si>
+    <t>ObjectType^Panel||ObjectIdentifier^amt_menu_Main_collapse</t>
+  </si>
+  <si>
+    <t>panelAMTMainMenu</t>
+  </si>
+  <si>
+    <t>ObjectType^Link||ObjectLabel^Accounting</t>
+  </si>
+  <si>
+    <t>lnkAccountingMenu</t>
+  </si>
+  <si>
+    <t>lnkFASBMenu</t>
+  </si>
+  <si>
+    <t>ObjectType^Link||contentText^FASB/IASB Manager</t>
+  </si>
+  <si>
+    <t>lnkHome</t>
+  </si>
+  <si>
+    <t>ObjectType^Link||Parent.Parent.idStr^module-bar</t>
+  </si>
+  <si>
+    <t>panelAMTTree</t>
+  </si>
+  <si>
+    <t>ObjectType^Panel||idstr^RTVTree||ObjectIdentifier^RTVTree</t>
+  </si>
+  <si>
+    <t>panelNavigation</t>
+  </si>
+  <si>
+    <t>ObjectType^Panel||idstr^RAD_SPLITTER_PANE_CONTENT_slidingPane</t>
+  </si>
+  <si>
+    <t>lnkLeases</t>
+  </si>
+  <si>
+    <t>panelRPVLease</t>
+  </si>
+  <si>
+    <t>ObjectType^Panel||idstr^RPVLease||ObjectIdentifier^RPVLease</t>
+  </si>
+  <si>
+    <t>cbRememberMe</t>
+  </si>
+  <si>
+    <t>ObjectIdentifier^RememberMe||ObjectType^Checkbox</t>
+  </si>
+  <si>
+    <t>WndCaption^Choose File to Upload||Name^Window*Choose File to Upload*</t>
+  </si>
+  <si>
+    <t>wndChooseFiletoUpload</t>
+  </si>
+  <si>
+    <t>btnOkConfirmPopUp</t>
+  </si>
+  <si>
+    <t>ObjectIdentifier^OK||ObjectType^Button</t>
+  </si>
+  <si>
+    <t>ObjectType^Page||URL^*testamt.com/Home/Index*</t>
+  </si>
+  <si>
+    <t>ObjectType^Link||nameProp^DashboardMain.aspx#||ObjectIdentifier^1</t>
+  </si>
+  <si>
+    <t>cbFileName</t>
+  </si>
+  <si>
+    <t>WndClass^ComboBox||Name^Window("ComboBox", "", 1)</t>
+  </si>
+  <si>
+    <t>btnOpen</t>
+  </si>
+  <si>
+    <t>WndClass^Button||Name^Window("Button", "&amp;Open", 1)</t>
+  </si>
+  <si>
+    <t>pgDocuments</t>
+  </si>
+  <si>
+    <t>ObjectIdentifier^*testamt.com/AMTDocs*||ObjectType^Page</t>
+  </si>
+  <si>
+    <t>txtndOldFolder</t>
+  </si>
+  <si>
+    <t>ObjectType^TextNode||innerHTML^Old Folder</t>
+  </si>
+  <si>
+    <t>cbDefault</t>
+  </si>
+  <si>
+    <t>ObjectType^Checkbox||ObjectIdentifier^cbDefaultView</t>
+  </si>
+  <si>
+    <t>ObjectType^Link||nameProp^logout||Parent.ObjectIdentifier^amt_menu_Main_collapse</t>
+  </si>
+  <si>
+    <t>lnkProfile</t>
+  </si>
+  <si>
+    <t>lnkLogout</t>
+  </si>
+  <si>
+    <t>pgReportBuilder</t>
+  </si>
+  <si>
+    <t>ObjectIdentifier^https://*testamt.com*ReportBuilder*||ObjectType^Page</t>
+  </si>
+  <si>
+    <t>panelDownloadReoprt</t>
+  </si>
+  <si>
+    <t>idStr^ExecuteProgressDownloadBtn||ObjectType^Panel</t>
+  </si>
+  <si>
+    <t>panelMasterContainer</t>
+  </si>
+  <si>
+    <t>idStr^dialogMasterContainer_0||ObjectType^Panel</t>
+  </si>
+  <si>
+    <t>panelCancelDownload</t>
+  </si>
+  <si>
+    <t>idStr^CancelBtn||ObjectType^Panel</t>
+  </si>
+  <si>
+    <t>wndNotification</t>
+  </si>
+  <si>
+    <t>WndClass^Frame Notification Bar</t>
+  </si>
+  <si>
+    <t>WndClass^Frame Notification Bar||Name^*Frame Notification Bar*</t>
+  </si>
+  <si>
+    <t>wndFileSaveBar</t>
+  </si>
+  <si>
+    <t>imgExpToPdf</t>
+  </si>
+  <si>
+    <t>ObjectIdentifier^btnExportPDF||ObjectType^ImageButton||VisibleOnScreen^True</t>
+  </si>
+  <si>
+    <t>imgExpToExcel</t>
+  </si>
+  <si>
+    <t>ObjectIdentifier^btnExportExcel||ObjectType^ImageButton||VisibleOnScreen^True</t>
+  </si>
+  <si>
+    <t>imgExpToCSV</t>
+  </si>
+  <si>
+    <t>ObjectIdentifier^btnExportCSV||ObjectType^ImageButton||VisibleOnScreen^True</t>
+  </si>
+  <si>
+    <t>ObjectType^Link||innerHTML^*class="glyphicon glyphicon-user"*||Parent.ObjectIdentifier^amt_menu_Main_collapse</t>
+  </si>
+  <si>
+    <t>lnkSearch</t>
+  </si>
+  <si>
+    <t>txtSearchBox</t>
+  </si>
+  <si>
+    <t>idStr^tbSearchCriteria||ObjectType^Textbox</t>
+  </si>
+  <si>
+    <t>btnSearch</t>
+  </si>
+  <si>
+    <t>ObjectType^Button||ObjectLabel^Search||className^btn btn-default btn-sm</t>
+  </si>
+  <si>
+    <t>txtndManageVirtualFolder</t>
+  </si>
+  <si>
+    <t>ObjectType^TextNode||innerHTML^Manage Virtual Folder||Parent.Parent.idStr^RTVTree_treeContextMenu_detached</t>
+  </si>
+  <si>
+    <t>panelDocContext</t>
+  </si>
+  <si>
+    <t>ObjectIdentifier^RTVTree_treeContextMenu_detached||ObjectType^Panel</t>
+  </si>
+  <si>
+    <t>wndOKButton</t>
+  </si>
+  <si>
+    <t>WndClass^Button||Name^*OK*||Parent.Name^*Message from webpage*</t>
+  </si>
+  <si>
+    <t>txtndManageFolder</t>
+  </si>
+  <si>
+    <t>ObjectType^TextNode||innerHTML^Manage Folder||Parent.Parent.idStr^RTVTree_treeContextMenu_detached</t>
+  </si>
+  <si>
+    <t>dpdIn</t>
+  </si>
+  <si>
+    <t>idStr^ddlSearchOptions||ObjectType^Select</t>
+  </si>
+  <si>
+    <t>WndClass^Internet Explorer_Server||ObjectType^PagePopup</t>
+  </si>
+  <si>
+    <t>Addressbar</t>
+  </si>
+  <si>
+    <t>pgAMTMoved</t>
+  </si>
+  <si>
+    <t>ObjectIdentifier^*testamt.com*Page404*AMTAPP/contacts*||ObjectType^Page</t>
+  </si>
+  <si>
+    <t>ImgAMT</t>
+  </si>
+  <si>
+    <t>ObjectType^Image||ObjectIdentifier^amtLogo_png</t>
+  </si>
+  <si>
+    <t>txtndConfigure</t>
+  </si>
+  <si>
+    <t>ObjectType^TextNode||className^dockConfigureCommand||Parent.Parent.innerHTML^*Configure*||Parent.Parent.ObjectIdentifier^T||Parent.Parent.idStr^ctl00_324007_T</t>
+  </si>
+  <si>
+    <t>ObjectType^Panel||ObjectIdentifier^ctl00_324007||VisibleOnScreen^True</t>
+  </si>
+  <si>
+    <t>panelSearch</t>
+  </si>
+  <si>
+    <t>idStr^searchbox||ObjectType^Panel||Parent.idStr^amt-menu-main-collapse</t>
+  </si>
+  <si>
+    <t>imgExcelIcon</t>
+  </si>
+  <si>
+    <t>ObjectIdentifier^ExcelIcon_large_png||ObjectType^Image||VisibleOnScreen^True</t>
+  </si>
+  <si>
+    <t>imgCSVIcon</t>
+  </si>
+  <si>
+    <t>ObjectIdentifier^CSVIcon_large_png||ObjectType^Image||VisibleOnScreen^True</t>
+  </si>
+  <si>
+    <t>imgPDFIcon</t>
+  </si>
+  <si>
+    <t>ObjectIdentifier^PDFIcon_large_png||ObjectType^Image||VisibleOnScreen^True</t>
+  </si>
+  <si>
+    <t>dpdFindInDropDown</t>
+  </si>
+  <si>
+    <t>ObjectType^PagePopup||Exists^True</t>
+  </si>
+  <si>
+    <t>ObjectType^Link||innerHTML^*span class="glyphicon glyphicon-search"*</t>
+  </si>
+  <si>
+    <t>ObjectIdentifier^*testamt.com*||ObjectType^Page</t>
+  </si>
+  <si>
+    <t>lnkUserIcon</t>
+  </si>
+  <si>
+    <t>namePropStr^Index#||ObjectType^Link||className^dropdown-toggle||outerHTML^*glyphicon glyphicon-user*</t>
+  </si>
+  <si>
+    <t>EditAddressBar</t>
+  </si>
+  <si>
+    <t>WndClass^Edit||Parent.WndClass^Address Band Root</t>
+  </si>
+  <si>
+    <t>WndClass^WorkerW||Name^Window*WorkerW*||Parent.ObjectType^BrowserWindow</t>
+  </si>
+  <si>
+    <t>WndClass^AddressDisplay Control||Name^Window("AddressDisplay Control", "", 1)||VisibleOnScreen^True</t>
+  </si>
+  <si>
+    <t>pgAMTErrorSelectUser</t>
+  </si>
+  <si>
+    <t>pgProductionURL</t>
+  </si>
+  <si>
+    <t>ObjectIdentifier^*app.amtdirect.com/login*||ObjectType^Page</t>
+  </si>
+  <si>
+    <t>ObjectIdentifier^*testamt.com*Page404*AMTAPP/Tickler*||ObjectType^Page</t>
+  </si>
+  <si>
+    <t>lnkHomeIcon</t>
+  </si>
+  <si>
+    <t>ObjectType^Link||outerHTML^*glyphicon glyphicon-home*</t>
+  </si>
+  <si>
+    <t>wndDocuments</t>
+  </si>
+  <si>
+    <t>WndClass^TabWindowClass||WndCaption^*testamt.com/AMTDOCS*||Parent.Parent.ObjectType^BrowserWindow</t>
+  </si>
+  <si>
+    <t>pgAMTAppExport</t>
+  </si>
+  <si>
+    <t>ObjectIdentifier^https://*testamt.com/AMTAPP/EXPORT*||ObjectType^Page</t>
+  </si>
+  <si>
     <t>ObjSearchKey</t>
   </si>
   <si>
+    <t>by_id</t>
+  </si>
+  <si>
+    <t>by_xpath</t>
+  </si>
+  <si>
     <t>ObjectLocators</t>
   </si>
   <si>
-    <t>by_name</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>by_xpath</t>
-  </si>
-  <si>
-    <t>//*[@class='btn btn-action btn-lg btn-block loginbtn']</t>
+    <t>txtUSER_NAME</t>
+  </si>
+  <si>
+    <t>txtClient_Number</t>
+  </si>
+  <si>
+    <t>//*[@class='btn btn-primary']</t>
+  </si>
+  <si>
+    <t>testamt.com</t>
+  </si>
+  <si>
+    <t>btnInterestRate</t>
+  </si>
+  <si>
+    <t>idStr^btn_npv_interest||ObjectType^Button</t>
+  </si>
+  <si>
+    <t>btn_npv_interest</t>
+  </si>
+  <si>
+    <t>tbInterestGrid</t>
+  </si>
+  <si>
+    <t>//*[@id='interestGrid']</t>
+  </si>
+  <si>
+    <t>modal-content-lease-filter</t>
+  </si>
+  <si>
+    <t>tbLeaseSelection</t>
+  </si>
+  <si>
+    <t>panelFIManager</t>
+  </si>
+  <si>
+    <t>tbarCmdselect_lease</t>
+  </si>
+  <si>
+    <t>lnkSelectLease</t>
+  </si>
+  <si>
+    <t>treeFASBMgr</t>
+  </si>
+  <si>
+    <t>propertyName</t>
+  </si>
+  <si>
+    <t>propertyCode</t>
+  </si>
+  <si>
+    <t>address1</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>postal</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>codeType</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>sqFtRentable</t>
+  </si>
+  <si>
+    <t>buildingList</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>assetType</t>
+  </si>
+  <si>
+    <t>autoManage</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'_tbPropertyName')]</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'_tbPropertyCode')]</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'_tbAddress1')]</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'_ddlCountry')]</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'_ddlState')]</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'_tbPostal')]</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'_tbCity')]</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'_ddlCodeType')]</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'_ddlStatus')]</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'_ddlCurrency')]</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'_tbSqFtRentable')]</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'_ddlPropertyGroup1')]</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'_ddlPropertyGroup2')]</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'_ddlPropertyGroup3')]</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'_cbAutoManage')]</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'_btnSave')]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,13 +574,32 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -93,8 +612,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -128,12 +653,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -146,17 +743,216 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -432,10 +1228,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,62 +1239,1073 @@
     <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="57.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" customWidth="1"/>
+    <col min="5" max="5" width="96.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="E6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63457F8-4820-4E80-A0BD-86B1DB623BD5}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="59.85546875" customWidth="1"/>
+    <col min="2" max="2" width="72.140625" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" customWidth="1"/>
+    <col min="4" max="4" width="44.5703125" customWidth="1"/>
+    <col min="5" max="5" width="57" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="160.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="11"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A32 A1:A25 A34:A36 A39:A1048576">
+    <cfRule type="duplicateValues" dxfId="15" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A30 A32 A34:A36 A39:A1048576">
+    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A32 A34:A36 A39:A1048576">
+    <cfRule type="duplicateValues" dxfId="13" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A37 A39:A1048576">
+    <cfRule type="duplicateValues" dxfId="12" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38">
+    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38">
+    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38">
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38">
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38">
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="76.140625" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A3:B3">
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+      <c r="A5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12 A7">
+    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="15"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/main/resources/objectLocator/Common.xlsx
+++ b/src/main/resources/objectLocator/Common.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2994F9-F0C1-484D-84E5-352BF6B1E15F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25808E5-5597-4D88-B073-0239FBE190A3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="1860" windowWidth="20490" windowHeight="3630" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -1412,7 +1412,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1646,7 +1646,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2026,33 +2026,33 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A32 A1:A25 A34:A36 A39:A1048576">
-    <cfRule type="duplicateValues" dxfId="15" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A30 A32 A34:A36 A39:A1048576">
-    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A32 A34:A36 A39:A1048576">
-    <cfRule type="duplicateValues" dxfId="13" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A37 A39:A1048576">
-    <cfRule type="duplicateValues" dxfId="12" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2127,7 +2127,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:B3">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2254,10 +2254,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12 A7">
-    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2304,7 +2304,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/objectLocator/Common.xlsx
+++ b/src/main/resources/objectLocator/Common.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25808E5-5597-4D88-B073-0239FBE190A3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06E6AA1-6911-40B3-ADFE-A35F8C5DDC81}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="180">
   <si>
     <t>ObjReference</t>
   </si>
@@ -553,6 +553,18 @@
   </si>
   <si>
     <t>//*[contains(@id,'_btnSave')]</t>
+  </si>
+  <si>
+    <t>//*[contains(@aria-owns,'Lease_Status_listbox')]</t>
+  </si>
+  <si>
+    <t>leaseStatus</t>
+  </si>
+  <si>
+    <t>leaseStatusList</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'Lease_Status_listbox')]</t>
   </si>
 </sst>
 </file>
@@ -1409,17 +1421,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63457F8-4820-4E80-A0BD-86B1DB623BD5}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="59.85546875" customWidth="1"/>
-    <col min="2" max="2" width="72.140625" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="56.85546875" customWidth="1"/>
+    <col min="3" max="3" width="59" customWidth="1"/>
     <col min="4" max="4" width="44.5703125" customWidth="1"/>
     <col min="5" max="5" width="57" customWidth="1"/>
   </cols>
@@ -1642,6 +1654,31 @@
       </c>
       <c r="E17" t="s">
         <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>177</v>
+      </c>
+      <c r="C18" t="s">
+        <v>179</v>
+      </c>
+      <c r="D18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>178</v>
+      </c>
+      <c r="D19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/objectLocator/Common.xlsx
+++ b/src/main/resources/objectLocator/Common.xlsx
@@ -3,17 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06E6AA1-6911-40B3-ADFE-A35F8C5DDC81}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F70DAD0-BBC9-4495-9A28-47F8C2735F49}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="330" windowWidth="19440" windowHeight="15150" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Property" sheetId="7" r:id="rId2"/>
-    <sheet name="Homepage" sheetId="2" r:id="rId3"/>
-    <sheet name="FileWindowObjects" sheetId="3" r:id="rId4"/>
-    <sheet name="ReportBuilder" sheetId="4" r:id="rId5"/>
-    <sheet name="Export" sheetId="6" r:id="rId6"/>
+    <sheet name="Lease" sheetId="8" r:id="rId3"/>
+    <sheet name="Homepage" sheetId="2" r:id="rId4"/>
+    <sheet name="FileWindowObjects" sheetId="3" r:id="rId5"/>
+    <sheet name="ReportBuilder" sheetId="4" r:id="rId6"/>
+    <sheet name="Export" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="204">
   <si>
     <t>ObjReference</t>
   </si>
@@ -565,13 +566,85 @@
   </si>
   <si>
     <t>//*[contains(@id,'Lease_Status_listbox')]</t>
+  </si>
+  <si>
+    <t>propertyList</t>
+  </si>
+  <si>
+    <t>//*[contains(@aria-controls,'__PropertyName_listbox')]</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'__PropertyName_listbox')]</t>
+  </si>
+  <si>
+    <t>dbaName</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'__DBA_Name')]</t>
+  </si>
+  <si>
+    <t>leaseCode</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'__Lease_Code')]</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'__Lease_Status_listbox')]</t>
+  </si>
+  <si>
+    <t>leaseType</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'__Lease_Type_listbox')]</t>
+  </si>
+  <si>
+    <t>billingType</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'__Lease_Billing_Type_listbox')]</t>
+  </si>
+  <si>
+    <t>beginDate</t>
+  </si>
+  <si>
+    <t>//*[contains(@name,'__Begin_Date')]</t>
+  </si>
+  <si>
+    <t>expirationDate</t>
+  </si>
+  <si>
+    <t>//*[contains(@name,'__Expiration_Date')]</t>
+  </si>
+  <si>
+    <t>contractTerm</t>
+  </si>
+  <si>
+    <t>//*[contains(@aria-owns,'__LeaseGroup1Id_listbox')]</t>
+  </si>
+  <si>
+    <t>saveButton</t>
+  </si>
+  <si>
+    <t>//*[contains(@class,'FormSaveButton')]</t>
+  </si>
+  <si>
+    <t>//*[contains(@aria-owns,'__Lease_Type_listbox')]</t>
+  </si>
+  <si>
+    <t>//*[contains(@aria-owns,'__Lease_Billing_Type_listbox')]</t>
+  </si>
+  <si>
+    <t>//*[contains(@aria-owns,'__Lease_Status_listbox')]</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'__LeaseGroup1Id_listbox')]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -609,6 +682,21 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -740,7 +828,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -789,11 +877,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1413,7 +1520,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1423,14 +1530,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63457F8-4820-4E80-A0BD-86B1DB623BD5}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="59.85546875" customWidth="1"/>
-    <col min="2" max="2" width="56.85546875" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
     <col min="4" max="4" width="44.5703125" customWidth="1"/>
     <col min="5" max="5" width="57" customWidth="1"/>
@@ -1683,13 +1790,189 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F63B57-EF66-439D-B48A-4F7B8AB73CB4}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="57.140625" customWidth="1"/>
+    <col min="4" max="4" width="56.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="B8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" t="s">
+        <v>197</v>
+      </c>
+      <c r="D11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C38"/>
   <sheetViews>
@@ -2096,7 +2379,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -2170,7 +2453,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -2301,7 +2584,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>

--- a/src/main/resources/objectLocator/Common.xlsx
+++ b/src/main/resources/objectLocator/Common.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F70DAD0-BBC9-4495-9A28-47F8C2735F49}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57838B1E-3E6B-404F-9F90-FD6A522D14A3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="330" windowWidth="19440" windowHeight="15150" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="205">
   <si>
     <t>ObjReference</t>
   </si>
@@ -421,9 +421,6 @@
     <t>txtClient_Number</t>
   </si>
   <si>
-    <t>//*[@class='btn btn-primary']</t>
-  </si>
-  <si>
     <t>testamt.com</t>
   </si>
   <si>
@@ -574,24 +571,12 @@
     <t>//*[contains(@aria-controls,'__PropertyName_listbox')]</t>
   </si>
   <si>
-    <t>//*[contains(@id,'__PropertyName_listbox')]</t>
-  </si>
-  <si>
     <t>dbaName</t>
   </si>
   <si>
-    <t>//*[contains(@id,'__DBA_Name')]</t>
-  </si>
-  <si>
     <t>leaseCode</t>
   </si>
   <si>
-    <t>//*[contains(@id,'__Lease_Code')]</t>
-  </si>
-  <si>
-    <t>//*[contains(@id,'__Lease_Status_listbox')]</t>
-  </si>
-  <si>
     <t>leaseType</t>
   </si>
   <si>
@@ -619,9 +604,6 @@
     <t>contractTerm</t>
   </si>
   <si>
-    <t>//*[contains(@aria-owns,'__LeaseGroup1Id_listbox')]</t>
-  </si>
-  <si>
     <t>saveButton</t>
   </si>
   <si>
@@ -638,6 +620,27 @@
   </si>
   <si>
     <t>//*[contains(@id,'__LeaseGroup1Id_listbox')]</t>
+  </si>
+  <si>
+    <t>//*[contains(@name,'__PropertyName_input')]</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'__Lease_Status')]</t>
+  </si>
+  <si>
+    <t>//input[@value="Log in"]</t>
+  </si>
+  <si>
+    <t>//input[contains(@id,'__DBA_Name')]</t>
+  </si>
+  <si>
+    <t>//input[contains(@id,'__Lease_Code')]</t>
+  </si>
+  <si>
+    <t>//span[contains(@aria-owns,'__LeaseGroup1Id_listbox')]</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'PropertyName-list')]</t>
   </si>
 </sst>
 </file>
@@ -1350,7 +1353,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1436,7 +1439,7 @@
         <v>127</v>
       </c>
       <c r="E5" t="s">
-        <v>131</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1448,7 +1451,7 @@
       </c>
       <c r="C6" s="5"/>
       <c r="E6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1461,61 +1464,61 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="19" t="s">
         <v>133</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>134</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" t="s">
         <v>126</v>
       </c>
       <c r="E8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" t="s">
         <v>136</v>
-      </c>
-      <c r="D9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E9" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D10" t="s">
         <v>126</v>
       </c>
       <c r="E10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D11" t="s">
         <v>126</v>
       </c>
       <c r="E11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D12" t="s">
         <v>126</v>
       </c>
       <c r="E12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1530,14 +1533,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63457F8-4820-4E80-A0BD-86B1DB623BD5}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="59.85546875" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="65.140625" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
     <col min="4" max="4" width="44.5703125" customWidth="1"/>
     <col min="5" max="5" width="57" customWidth="1"/>
@@ -1562,7 +1565,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -1572,12 +1575,12 @@
         <v>127</v>
       </c>
       <c r="E2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
@@ -1587,12 +1590,12 @@
         <v>127</v>
       </c>
       <c r="E3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
@@ -1602,12 +1605,12 @@
         <v>127</v>
       </c>
       <c r="E4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>10</v>
@@ -1617,12 +1620,12 @@
         <v>127</v>
       </c>
       <c r="E5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>34</v>
@@ -1632,12 +1635,12 @@
         <v>127</v>
       </c>
       <c r="E6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>108</v>
@@ -1646,146 +1649,146 @@
         <v>127</v>
       </c>
       <c r="E7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" t="s">
         <v>127</v>
       </c>
       <c r="E8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D9" t="s">
         <v>127</v>
       </c>
       <c r="E9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D10" t="s">
         <v>127</v>
       </c>
       <c r="E10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D11" t="s">
         <v>127</v>
       </c>
       <c r="E11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D12" t="s">
         <v>127</v>
       </c>
       <c r="E12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D13" t="s">
         <v>127</v>
       </c>
       <c r="E13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D14" t="s">
         <v>127</v>
       </c>
       <c r="E14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D15" t="s">
         <v>127</v>
       </c>
       <c r="E15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D16" t="s">
         <v>127</v>
       </c>
       <c r="E16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D17" t="s">
         <v>127</v>
       </c>
       <c r="E17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D18" t="s">
         <v>127</v>
       </c>
       <c r="E18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" t="s">
         <v>178</v>
-      </c>
-      <c r="D19" t="s">
-        <v>127</v>
-      </c>
-      <c r="E19" t="s">
-        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -1801,7 +1804,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1828,139 +1831,141 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" t="s">
         <v>180</v>
       </c>
-      <c r="B2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
         <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B4" t="s">
         <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B5" t="s">
         <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B6" t="s">
         <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D6" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B7" t="s">
         <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B8" t="s">
         <v>127</v>
       </c>
       <c r="C8" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B9" t="s">
         <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B10" t="s">
         <v>127</v>
       </c>
       <c r="C10" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B11" t="s">
         <v>127</v>
       </c>
       <c r="C11" t="s">
+        <v>203</v>
+      </c>
+      <c r="D11" t="s">
         <v>197</v>
-      </c>
-      <c r="D11" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B12" t="s">
         <v>127</v>
       </c>
       <c r="C12" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/objectLocator/Common.xlsx
+++ b/src/main/resources/objectLocator/Common.xlsx
@@ -3,18 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57838B1E-3E6B-404F-9F90-FD6A522D14A3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFACD1C-9809-4A39-A3A1-66D4795FA23E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Property" sheetId="7" r:id="rId2"/>
     <sheet name="Lease" sheetId="8" r:id="rId3"/>
-    <sheet name="Homepage" sheetId="2" r:id="rId4"/>
-    <sheet name="FileWindowObjects" sheetId="3" r:id="rId5"/>
-    <sheet name="ReportBuilder" sheetId="4" r:id="rId6"/>
-    <sheet name="Export" sheetId="6" r:id="rId7"/>
+    <sheet name="GlobalSearch" sheetId="9" r:id="rId4"/>
+    <sheet name="Homepage" sheetId="2" r:id="rId5"/>
+    <sheet name="FileWindowObjects" sheetId="3" r:id="rId6"/>
+    <sheet name="ReportBuilder" sheetId="4" r:id="rId7"/>
+    <sheet name="Export" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="212">
   <si>
     <t>ObjReference</t>
   </si>
@@ -641,6 +642,27 @@
   </si>
   <si>
     <t>//*[contains(@id,'PropertyName-list')]</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>//*[text()='Search']</t>
+  </si>
+  <si>
+    <t>txtSearch</t>
+  </si>
+  <si>
+    <t>tbSearchCriteria</t>
+  </si>
+  <si>
+    <t>//*[@class='btn btn-default btn-sm']</t>
+  </si>
+  <si>
+    <t>tableRow</t>
+  </si>
+  <si>
+    <t>gridLease</t>
   </si>
 </sst>
 </file>
@@ -1803,7 +1825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F63B57-EF66-439D-B48A-4F7B8AB73CB4}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -1978,6 +2000,86 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E6D20C-25AD-4167-A7E6-F426B5200648}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C38"/>
   <sheetViews>
@@ -2384,7 +2486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -2458,7 +2560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -2589,7 +2691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>

--- a/src/main/resources/objectLocator/Common.xlsx
+++ b/src/main/resources/objectLocator/Common.xlsx
@@ -3,19 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFACD1C-9809-4A39-A3A1-66D4795FA23E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72677412-4DF2-4002-85DB-C1C7FE9F4CBA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Property" sheetId="7" r:id="rId2"/>
-    <sheet name="Lease" sheetId="8" r:id="rId3"/>
-    <sheet name="GlobalSearch" sheetId="9" r:id="rId4"/>
-    <sheet name="Homepage" sheetId="2" r:id="rId5"/>
-    <sheet name="FileWindowObjects" sheetId="3" r:id="rId6"/>
-    <sheet name="ReportBuilder" sheetId="4" r:id="rId7"/>
-    <sheet name="Export" sheetId="6" r:id="rId8"/>
+    <sheet name="Space" sheetId="10" r:id="rId3"/>
+    <sheet name="Lease" sheetId="8" r:id="rId4"/>
+    <sheet name="GlobalSearch" sheetId="9" r:id="rId5"/>
+    <sheet name="Homepage" sheetId="2" r:id="rId6"/>
+    <sheet name="FileWindowObjects" sheetId="3" r:id="rId7"/>
+    <sheet name="ReportBuilder" sheetId="4" r:id="rId8"/>
+    <sheet name="Export" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="231">
   <si>
     <t>ObjReference</t>
   </si>
@@ -663,6 +664,63 @@
   </si>
   <si>
     <t>gridLease</t>
+  </si>
+  <si>
+    <t>suiteStatus</t>
+  </si>
+  <si>
+    <t>//*[contains(@aria-owns,'__ACTIVE_FLAG_listbox')]</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'__ACTIVE_FLAG_listbox')]</t>
+  </si>
+  <si>
+    <t>space</t>
+  </si>
+  <si>
+    <t>//input[contains(@id,'__SUITE_NUMBER')]</t>
+  </si>
+  <si>
+    <t>floor</t>
+  </si>
+  <si>
+    <t>//input[contains(@id,'__FLOOR_NUMBER')]</t>
+  </si>
+  <si>
+    <t>linked</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'__Linked')]</t>
+  </si>
+  <si>
+    <t>startDate</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'__START_DATE')]</t>
+  </si>
+  <si>
+    <t>endDate</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'__END_DATE')]</t>
+  </si>
+  <si>
+    <t>btnSave</t>
+  </si>
+  <si>
+    <t>btnClose</t>
+  </si>
+  <si>
+    <t>//*[contains(@class,'SEFormCloseButton')]</t>
+  </si>
+  <si>
+    <t>btnNewSpace</t>
+  </si>
+  <si>
+    <t>//*[text()='Add New Suite']</t>
+  </si>
+  <si>
+    <t>//*[contains(@class,'SEFormSaveButton')]</t>
   </si>
 </sst>
 </file>
@@ -915,7 +973,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1545,7 +1613,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1815,18 +1883,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F63B57-EF66-439D-B48A-4F7B8AB73CB4}">
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC24E92E-F997-460A-B0F8-A599A67DEE36}">
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1853,6 +1921,150 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="B8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F63B57-EF66-439D-B48A-4F7B8AB73CB4}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="57.140625" customWidth="1"/>
+    <col min="4" max="4" width="56.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>179</v>
       </c>
       <c r="B2" t="s">
@@ -1988,6 +2200,17 @@
       </c>
       <c r="C12" t="s">
         <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>228</v>
+      </c>
+      <c r="B13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -1999,11 +2222,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E6D20C-25AD-4167-A7E6-F426B5200648}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -2079,7 +2302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C38"/>
   <sheetViews>
@@ -2486,7 +2709,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -2560,7 +2783,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -2691,7 +2914,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>

--- a/src/main/resources/objectLocator/Common.xlsx
+++ b/src/main/resources/objectLocator/Common.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72677412-4DF2-4002-85DB-C1C7FE9F4CBA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58CF342-9F91-4C72-BF1E-B97D53716602}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -660,9 +660,6 @@
     <t>//*[@class='btn btn-default btn-sm']</t>
   </si>
   <si>
-    <t>tableRow</t>
-  </si>
-  <si>
     <t>gridLease</t>
   </si>
   <si>
@@ -721,6 +718,9 @@
   </si>
   <si>
     <t>//*[contains(@class,'SEFormSaveButton')]</t>
+  </si>
+  <si>
+    <t>leasetable</t>
   </si>
 </sst>
 </file>
@@ -1893,8 +1893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC24E92E-F997-460A-B0F8-A599A67DEE36}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1921,107 +1921,107 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" t="s">
         <v>212</v>
       </c>
-      <c r="B2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" t="s">
         <v>215</v>
-      </c>
-      <c r="B3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" t="s">
-        <v>216</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" t="s">
         <v>217</v>
-      </c>
-      <c r="B4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" t="s">
-        <v>218</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" t="s">
         <v>219</v>
-      </c>
-      <c r="B5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C5" t="s">
-        <v>220</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" t="s">
         <v>221</v>
-      </c>
-      <c r="B6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" t="s">
         <v>223</v>
-      </c>
-      <c r="B7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B8" t="s">
         <v>127</v>
       </c>
       <c r="C8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" t="s">
         <v>226</v>
-      </c>
-      <c r="B9" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" t="s">
         <v>228</v>
-      </c>
-      <c r="B10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C10" t="s">
-        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2204,13 +2204,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>227</v>
+      </c>
+      <c r="B13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" t="s">
         <v>228</v>
-      </c>
-      <c r="B13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C13" t="s">
-        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2226,8 +2226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E6D20C-25AD-4167-A7E6-F426B5200648}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2287,13 +2287,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="B5" t="s">
         <v>126</v>
       </c>
       <c r="C5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/objectLocator/Common.xlsx
+++ b/src/main/resources/objectLocator/Common.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC56338-7658-4DB6-AC5D-B071FDA3F552}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3F2D0E-B245-473C-9E10-614071A19C72}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2535" yWindow="1425" windowWidth="15375" windowHeight="7995" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="128">
   <si>
     <t>ObjReference</t>
   </si>
@@ -372,13 +372,49 @@
   </si>
   <si>
     <t>rentableLease</t>
+  </si>
+  <si>
+    <t>grdAccountNumbers</t>
+  </si>
+  <si>
+    <t>accountTable</t>
+  </si>
+  <si>
+    <t>jeMappingTable</t>
+  </si>
+  <si>
+    <t>grdCashMapping</t>
+  </si>
+  <si>
+    <t>contractType</t>
+  </si>
+  <si>
+    <t>//*[@aria-owns='Contract_listbox']</t>
+  </si>
+  <si>
+    <t>//*[@id='Contract_listbox']</t>
+  </si>
+  <si>
+    <t>paymentType</t>
+  </si>
+  <si>
+    <t>//*[@aria-owns='Category_listbox']</t>
+  </si>
+  <si>
+    <t>//*[@id='Category_listbox']</t>
+  </si>
+  <si>
+    <t>gridAccountNumberFilters</t>
+  </si>
+  <si>
+    <t>jMappingAccountTable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,6 +442,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -460,7 +502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -489,6 +531,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1190,7 +1233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC24E92E-F997-460A-B0F8-A599A67DEE36}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -1532,15 +1575,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E6D20C-25AD-4167-A7E6-F426B5200648}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
     <col min="3" max="3" width="38.7109375" customWidth="1"/>
     <col min="4" max="4" width="42.7109375" customWidth="1"/>
@@ -1604,6 +1647,67 @@
         <v>93</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/objectLocator/Common.xlsx
+++ b/src/main/resources/objectLocator/Common.xlsx
@@ -3,16 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3F2D0E-B245-473C-9E10-614071A19C72}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2560972C-6939-4680-9AC4-7E50EE249445}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="Property" sheetId="7" r:id="rId2"/>
-    <sheet name="Space" sheetId="10" r:id="rId3"/>
-    <sheet name="Lease" sheetId="8" r:id="rId4"/>
-    <sheet name="GlobalSearch" sheetId="9" r:id="rId5"/>
+    <sheet name="RecurringPayment" sheetId="11" r:id="rId1"/>
+    <sheet name="Login" sheetId="1" r:id="rId2"/>
+    <sheet name="Property" sheetId="7" r:id="rId3"/>
+    <sheet name="Space" sheetId="10" r:id="rId4"/>
+    <sheet name="Lease" sheetId="8" r:id="rId5"/>
+    <sheet name="GlobalSearch" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="162">
   <si>
     <t>ObjReference</t>
   </si>
@@ -408,13 +409,115 @@
   </si>
   <si>
     <t>jMappingAccountTable</t>
+  </si>
+  <si>
+    <t>chargeType</t>
+  </si>
+  <si>
+    <t>//*[contains(@aria-controls,'__Charge_listbox')]</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'__Charge-list')]</t>
+  </si>
+  <si>
+    <t>frequency</t>
+  </si>
+  <si>
+    <t>//*[contains(@aria-controls,'__PaymentInfo_listbox')]</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'__PaymentInfo-list')]</t>
+  </si>
+  <si>
+    <t>escalationType</t>
+  </si>
+  <si>
+    <t>//*[contains(@aria-controls,'__EscalationType_listbox')]</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'__EscalationType-list')]</t>
+  </si>
+  <si>
+    <t>leaseTermYear</t>
+  </si>
+  <si>
+    <t>//*[contains(@aria-controls,'__LeaseTermYear_listbox')]</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'__LeaseTermYear-list')]</t>
+  </si>
+  <si>
+    <t>leaseTermDefined</t>
+  </si>
+  <si>
+    <t>//*[contains(@aria-controls,'__LeaseTermDefined_listbox')]</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'__LeaseTermDefined-list')]</t>
+  </si>
+  <si>
+    <t>recurringChargeCurrency</t>
+  </si>
+  <si>
+    <t>//*[contains(@aria-controls,'__Currency_listbox')]</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'__Currency-list')]</t>
+  </si>
+  <si>
+    <t>RecurringCharge_SaveButton</t>
+  </si>
+  <si>
+    <t>RecurringChargeclose</t>
+  </si>
+  <si>
+    <t>btnAddRentalActivity</t>
+  </si>
+  <si>
+    <t>//*[text()='Add Rental Activity']</t>
+  </si>
+  <si>
+    <t>effDate</t>
+  </si>
+  <si>
+    <t>//input[contains(@id,'EFF_DATE')]</t>
+  </si>
+  <si>
+    <t>//input[contains(@id,'END_DATE')]</t>
+  </si>
+  <si>
+    <t>annual</t>
+  </si>
+  <si>
+    <t>//input[contains(@class,'k-formatted-value k-input k-valid')]</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>saveRentalActivity</t>
+  </si>
+  <si>
+    <t>//*[text()='Update']</t>
+  </si>
+  <si>
+    <t>addRecurrentPayment</t>
+  </si>
+  <si>
+    <t>//*[text()=' Add New']</t>
+  </si>
+  <si>
+    <t>grdRentalActivityDetail</t>
+  </si>
+  <si>
+    <t>tableRecurrentPayment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,6 +551,13 @@
       <color rgb="FF222222"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -502,7 +612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -532,11 +642,25 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -852,6 +976,240 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F98891-ABAE-470E-85F4-08BAD3F0F403}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="61.42578125" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A9:A17">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -991,13 +1349,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63457F8-4820-4E80-A0BD-86B1DB623BD5}">
   <dimension ref="A1:C19"/>
   <sheetViews>
@@ -1223,13 +1581,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC24E92E-F997-460A-B0F8-A599A67DEE36}">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -1377,14 +1735,14 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A9 A11">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F63B57-EF66-439D-B48A-4F7B8AB73CB4}">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -1566,19 +1924,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E6D20C-25AD-4167-A7E6-F426B5200648}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/objectLocator/Common.xlsx
+++ b/src/main/resources/objectLocator/Common.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3F2D0E-B245-473C-9E10-614071A19C72}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448A0CDA-F479-4C3B-B778-88458EBFA5CD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23460" yWindow="4035" windowWidth="15375" windowHeight="7875" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="136">
   <si>
     <t>ObjReference</t>
   </si>
@@ -408,6 +408,30 @@
   </si>
   <si>
     <t>jMappingAccountTable</t>
+  </si>
+  <si>
+    <t>//*[@name="cmbChartOfAccount_input"]</t>
+  </si>
+  <si>
+    <t>chartOfAccountInput</t>
+  </si>
+  <si>
+    <t>chartOfAccountList</t>
+  </si>
+  <si>
+    <t>//*[@id="cmbChartOfAccount_listbox"]</t>
+  </si>
+  <si>
+    <t>//*[@aria-controls="cmbChartOfAccount_listbox"]</t>
+  </si>
+  <si>
+    <t>leaseTypes</t>
+  </si>
+  <si>
+    <t>//*[@aria-owns="ddlLeaseTypes_listbox"]</t>
+  </si>
+  <si>
+    <t>//*[@id="ddlLeaseTypes_listbox"]</t>
   </si>
 </sst>
 </file>
@@ -1389,7 +1413,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1575,17 +1599,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E6D20C-25AD-4167-A7E6-F426B5200648}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.42578125" customWidth="1"/>
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" customWidth="1"/>
+    <col min="3" max="3" width="48.140625" customWidth="1"/>
     <col min="4" max="4" width="42.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1708,6 +1732,45 @@
         <v>126</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" t="s">
+        <v>135</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/objectLocator/Common.xlsx
+++ b/src/main/resources/objectLocator/Common.xlsx
@@ -3,16 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448A0CDA-F479-4C3B-B778-88458EBFA5CD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F4B035-EBFB-4D93-848A-C473FF193736}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23460" yWindow="4035" windowWidth="15375" windowHeight="7875" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="Property" sheetId="7" r:id="rId2"/>
-    <sheet name="Space" sheetId="10" r:id="rId3"/>
-    <sheet name="Lease" sheetId="8" r:id="rId4"/>
-    <sheet name="GlobalSearch" sheetId="9" r:id="rId5"/>
+    <sheet name="Homepage" sheetId="11" r:id="rId2"/>
+    <sheet name="Property" sheetId="7" r:id="rId3"/>
+    <sheet name="Space" sheetId="10" r:id="rId4"/>
+    <sheet name="Lease" sheetId="8" r:id="rId5"/>
+    <sheet name="GlobalSearch" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="145">
   <si>
     <t>ObjReference</t>
   </si>
@@ -432,6 +433,33 @@
   </si>
   <si>
     <t>//*[@id="ddlLeaseTypes_listbox"]</t>
+  </si>
+  <si>
+    <t>/Home/Index</t>
+  </si>
+  <si>
+    <t>testamt.com/Home/Index</t>
+  </si>
+  <si>
+    <t>pgAMTHome</t>
+  </si>
+  <si>
+    <t>jMappingchartOfAccountList</t>
+  </si>
+  <si>
+    <t>//*[@aria-owns="ddlChartOfAccountTypes_listbox"]</t>
+  </si>
+  <si>
+    <t>//*[@id="ddlChartOfAccountTypes_listbox"]</t>
+  </si>
+  <si>
+    <t>//*[@aria-owns="ddlMaintainCodeTypes_listbox"]</t>
+  </si>
+  <si>
+    <t>//*[@id="ddlMaintainCodeTypes_listbox"]</t>
+  </si>
+  <si>
+    <t>jMappingMaintainCodeType</t>
   </si>
 </sst>
 </file>
@@ -526,7 +554,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -556,11 +584,95 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -877,10 +989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,14 +1061,14 @@
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -1013,15 +1125,83 @@
         <v>23</v>
       </c>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>136</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A8">
+    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76E70099-CEBC-4B70-8574-EF45A2018E13}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="9" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63457F8-4820-4E80-A0BD-86B1DB623BD5}">
   <dimension ref="A1:C19"/>
   <sheetViews>
@@ -1253,7 +1433,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC24E92E-F997-460A-B0F8-A599A67DEE36}">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -1408,7 +1588,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F63B57-EF66-439D-B48A-4F7B8AB73CB4}">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -1597,12 +1777,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E6D20C-25AD-4167-A7E6-F426B5200648}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1771,6 +1951,34 @@
         <v>135</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" t="s">
+        <v>143</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/objectLocator/Common.xlsx
+++ b/src/main/resources/objectLocator/Common.xlsx
@@ -3,17 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F4B035-EBFB-4D93-848A-C473FF193736}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D4C4C8-B249-400C-B20E-3931F625B66C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="Homepage" sheetId="11" r:id="rId2"/>
-    <sheet name="Property" sheetId="7" r:id="rId3"/>
-    <sheet name="Space" sheetId="10" r:id="rId4"/>
-    <sheet name="Lease" sheetId="8" r:id="rId5"/>
-    <sheet name="GlobalSearch" sheetId="9" r:id="rId6"/>
+    <sheet name="RecurringPayment" sheetId="12" r:id="rId1"/>
+    <sheet name="Login" sheetId="1" r:id="rId2"/>
+    <sheet name="Homepage" sheetId="11" r:id="rId3"/>
+    <sheet name="Property" sheetId="7" r:id="rId4"/>
+    <sheet name="Space" sheetId="10" r:id="rId5"/>
+    <sheet name="Lease" sheetId="8" r:id="rId6"/>
+    <sheet name="GlobalSearch" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="179">
   <si>
     <t>ObjReference</t>
   </si>
@@ -460,13 +461,115 @@
   </si>
   <si>
     <t>jMappingMaintainCodeType</t>
+  </si>
+  <si>
+    <t>chargeType</t>
+  </si>
+  <si>
+    <t>//*[contains(@aria-controls,'__Charge_listbox')]</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'__Charge-list')]</t>
+  </si>
+  <si>
+    <t>frequency</t>
+  </si>
+  <si>
+    <t>//*[contains(@aria-controls,'__PaymentInfo_listbox')]</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'__PaymentInfo-list')]</t>
+  </si>
+  <si>
+    <t>escalationType</t>
+  </si>
+  <si>
+    <t>//*[contains(@aria-controls,'__EscalationType_listbox')]</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'__EscalationType-list')]</t>
+  </si>
+  <si>
+    <t>leaseTermYear</t>
+  </si>
+  <si>
+    <t>//*[contains(@aria-controls,'__LeaseTermYear_listbox')]</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'__LeaseTermYear-list')]</t>
+  </si>
+  <si>
+    <t>leaseTermDefined</t>
+  </si>
+  <si>
+    <t>//*[contains(@aria-controls,'__LeaseTermDefined_listbox')]</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'__LeaseTermDefined-list')]</t>
+  </si>
+  <si>
+    <t>recurringChargeCurrency</t>
+  </si>
+  <si>
+    <t>//*[contains(@aria-controls,'__Currency_listbox')]</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'__Currency-list')]</t>
+  </si>
+  <si>
+    <t>RecurringCharge_SaveButton</t>
+  </si>
+  <si>
+    <t>RecurringChargeclose</t>
+  </si>
+  <si>
+    <t>btnAddRentalActivity</t>
+  </si>
+  <si>
+    <t>//*[text()='Add Rental Activity']</t>
+  </si>
+  <si>
+    <t>effDate</t>
+  </si>
+  <si>
+    <t>//input[contains(@id,'EFF_DATE')]</t>
+  </si>
+  <si>
+    <t>//input[contains(@id,'END_DATE')]</t>
+  </si>
+  <si>
+    <t>annual</t>
+  </si>
+  <si>
+    <t>//input[contains(@class,'k-formatted-value k-input k-valid')]</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>saveRentalActivity</t>
+  </si>
+  <si>
+    <t>//*[text()='Update']</t>
+  </si>
+  <si>
+    <t>addRecurrentPayment</t>
+  </si>
+  <si>
+    <t>//*[text()=' Add New']</t>
+  </si>
+  <si>
+    <t>tableRecurrentPayment</t>
+  </si>
+  <si>
+    <t>grdRentalActivityDetail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -500,6 +603,13 @@
       <color rgb="FF222222"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -554,7 +664,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -588,11 +698,25 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -988,6 +1112,240 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD51E865-2458-4A55-AA79-2C102593FD0A}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="48.140625" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A9:A17">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -1132,13 +1490,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76E70099-CEBC-4B70-8574-EF45A2018E13}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1174,34 +1532,34 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="9" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63457F8-4820-4E80-A0BD-86B1DB623BD5}">
   <dimension ref="A1:C19"/>
   <sheetViews>
@@ -1427,13 +1785,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC24E92E-F997-460A-B0F8-A599A67DEE36}">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -1581,14 +1939,14 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A9 A11">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F63B57-EF66-439D-B48A-4F7B8AB73CB4}">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -1770,19 +2128,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E6D20C-25AD-4167-A7E6-F426B5200648}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/objectLocator/Common.xlsx
+++ b/src/main/resources/objectLocator/Common.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D4C4C8-B249-400C-B20E-3931F625B66C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B76785D-A9E8-4069-8A5D-34F25712327D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RecurringPayment" sheetId="12" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="181">
   <si>
     <t>ObjReference</t>
   </si>
@@ -563,6 +563,12 @@
   </si>
   <si>
     <t>grdRentalActivityDetail</t>
+  </si>
+  <si>
+    <t>addNewButton</t>
+  </si>
+  <si>
+    <t>//*[@onclick='MainLeaseWidget_e_add()']</t>
   </si>
 </sst>
 </file>
@@ -1115,7 +1121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD51E865-2458-4A55-AA79-2C102593FD0A}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -1338,7 +1344,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A9:A17">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1490,7 +1496,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1532,28 +1538,28 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="10" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1564,7 +1570,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1785,7 +1791,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1939,7 +1945,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A9 A11">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1948,10 +1954,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F63B57-EF66-439D-B48A-4F7B8AB73CB4}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2126,9 +2132,20 @@
         <v>111</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>179</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2139,7 +2156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E6D20C-25AD-4167-A7E6-F426B5200648}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/objectLocator/Common.xlsx
+++ b/src/main/resources/objectLocator/Common.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B76785D-A9E8-4069-8A5D-34F25712327D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8E8E27-4122-4338-82CE-B4AFA969DAB9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RecurringPayment" sheetId="12" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="184">
   <si>
     <t>ObjReference</t>
   </si>
@@ -569,6 +569,15 @@
   </si>
   <si>
     <t>//*[@onclick='MainLeaseWidget_e_add()']</t>
+  </si>
+  <si>
+    <t>spaceInfo</t>
+  </si>
+  <si>
+    <t>//*[contains(@aria-controls,'__SuiteIndex_listbox')]</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'__SuiteIndex-list')]</t>
   </si>
 </sst>
 </file>
@@ -1119,10 +1128,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD51E865-2458-4A55-AA79-2C102593FD0A}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1148,159 +1157,162 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>146</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>148</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D6" t="s">
-        <v>159</v>
+        <v>155</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
         <v>161</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>166</v>
-      </c>
-      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>168</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>105</v>
+        <v>167</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -1311,39 +1323,50 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C18" s="10" t="s">
         <v>178</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A9:A17">
+  <conditionalFormatting sqref="A10:A18">
     <cfRule type="duplicateValues" dxfId="12" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2156,8 +2179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E6D20C-25AD-4167-A7E6-F426B5200648}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/objectLocator/Common.xlsx
+++ b/src/main/resources/objectLocator/Common.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8E8E27-4122-4338-82CE-B4AFA969DAB9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95AA36C-452E-468A-8FEE-809AAA74DA38}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RecurringPayment" sheetId="12" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="186">
   <si>
     <t>ObjReference</t>
   </si>
@@ -578,6 +578,12 @@
   </si>
   <si>
     <t>//*[contains(@id,'__SuiteIndex-list')]</t>
+  </si>
+  <si>
+    <t>tbProperty</t>
+  </si>
+  <si>
+    <t>//div[contains(@id,'gridProperty')]</t>
   </si>
 </sst>
 </file>
@@ -1130,7 +1136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD51E865-2458-4A55-AA79-2C102593FD0A}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1590,10 +1596,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63457F8-4820-4E80-A0BD-86B1DB623BD5}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1810,6 +1816,17 @@
       </c>
       <c r="C19" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>184</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/objectLocator/Common.xlsx
+++ b/src/main/resources/objectLocator/Common.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95AA36C-452E-468A-8FEE-809AAA74DA38}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE3D137-3B09-47A7-83B9-51E69312B964}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="190">
   <si>
     <t>ObjReference</t>
   </si>
@@ -583,7 +583,19 @@
     <t>tbProperty</t>
   </si>
   <si>
-    <t>//div[contains(@id,'gridProperty')]</t>
+    <t>//*[contains(@id,'ddlSearchOptions')]</t>
+  </si>
+  <si>
+    <t>searchOption</t>
+  </si>
+  <si>
+    <t>//div[(@id='gridProperty')]</t>
+  </si>
+  <si>
+    <t>tbLease</t>
+  </si>
+  <si>
+    <t>//div[(@id='id_376368_C_ctl01_ucPSPC_gvPropertyContracts')]</t>
   </si>
 </sst>
 </file>
@@ -1596,10 +1608,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63457F8-4820-4E80-A0BD-86B1DB623BD5}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1826,7 +1838,18 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>185</v>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>188</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -2194,10 +2217,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E6D20C-25AD-4167-A7E6-F426B5200648}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2246,151 +2269,163 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>186</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>119</v>
+      <c r="C7" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D8" t="s">
-        <v>122</v>
+        <v>10</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>126</v>
+        <v>124</v>
+      </c>
+      <c r="D10" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>132</v>
-      </c>
-      <c r="D12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D14" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>144</v>
       </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
         <v>142</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>143</v>
       </c>
     </row>

--- a/src/main/resources/objectLocator/Common.xlsx
+++ b/src/main/resources/objectLocator/Common.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95AA36C-452E-468A-8FEE-809AAA74DA38}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592A435C-4F54-49B6-966F-348B1AC6E512}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RecurringPayment" sheetId="12" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="187">
   <si>
     <t>ObjReference</t>
   </si>
@@ -142,15 +142,6 @@
     <t>sqFtRentable</t>
   </si>
   <si>
-    <t>buildingList</t>
-  </si>
-  <si>
-    <t>region</t>
-  </si>
-  <si>
-    <t>assetType</t>
-  </si>
-  <si>
     <t>autoManage</t>
   </si>
   <si>
@@ -250,9 +241,6 @@
     <t>//*[contains(@name,'__Expiration_Date')]</t>
   </si>
   <si>
-    <t>contractTerm</t>
-  </si>
-  <si>
     <t>saveButton</t>
   </si>
   <si>
@@ -436,9 +424,6 @@
     <t>//*[@id="ddlLeaseTypes_listbox"]</t>
   </si>
   <si>
-    <t>/Home/Index</t>
-  </si>
-  <si>
     <t>testamt.com/Home/Index</t>
   </si>
   <si>
@@ -584,13 +569,31 @@
   </si>
   <si>
     <t>//div[contains(@id,'gridProperty')]</t>
+  </si>
+  <si>
+    <t>propertyGroup1</t>
+  </si>
+  <si>
+    <t>propertyGroup2</t>
+  </si>
+  <si>
+    <t>propertyGroup3</t>
+  </si>
+  <si>
+    <t>leaseGroup1</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>https://qa2.testamt.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -628,6 +631,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -682,10 +693,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -699,9 +711,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -711,7 +720,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -720,11 +729,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
@@ -1149,226 +1157,226 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>183</v>
+      <c r="A2" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D8" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>107</v>
+      <c r="A9" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>163</v>
+      <c r="C9" s="12" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
         <v>166</v>
       </c>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>172</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>177</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>178</v>
+      <c r="C18" s="9" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -1384,8 +1392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1447,7 +1455,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1464,7 +1472,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B8" t="s">
@@ -1519,14 +1527,20 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>136</v>
+      <c r="A13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A8">
     <cfRule type="duplicateValues" dxfId="11" priority="1"/>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C13" r:id="rId1" xr:uid="{C3E3D2A4-5B9F-4913-BDF5-F396382B25DB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1550,7 +1564,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C1" t="s">
@@ -1558,11 +1572,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>138</v>
+      <c r="A2" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1598,8 +1612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63457F8-4820-4E80-A0BD-86B1DB623BD5}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1628,7 +1642,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1639,7 +1653,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1650,7 +1664,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1661,7 +1675,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1672,7 +1686,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1683,18 +1697,18 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1705,7 +1719,7 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1716,7 +1730,7 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1727,7 +1741,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1738,51 +1752,51 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>181</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>183</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1793,40 +1807,40 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -1854,133 +1868,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>107</v>
+      <c r="A8" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
         <v>110</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1997,7 +2011,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2009,31 +2023,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2044,143 +2058,143 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" t="s">
         <v>66</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2224,24 +2238,24 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2252,146 +2266,146 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>119</v>
+      <c r="C7" s="9" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D12" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D14" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D15" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/objectLocator/Common.xlsx
+++ b/src/main/resources/objectLocator/Common.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592A435C-4F54-49B6-966F-348B1AC6E512}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF0C6E2-F35C-485E-B429-892950E186E2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RecurringPayment" sheetId="12" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="187">
   <si>
     <t>ObjReference</t>
   </si>
@@ -583,17 +583,17 @@
     <t>leaseGroup1</t>
   </si>
   <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>https://qa2.testamt.com</t>
+    <t>tbLease</t>
+  </si>
+  <si>
+    <t>//div[(@id='id_376368_C_ctl01_ucPSPC_gvPropertyContracts')]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -631,14 +631,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF222222"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -693,9 +685,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -729,10 +720,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
@@ -1390,10 +1380,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1526,21 +1516,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>185</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>186</v>
-      </c>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="A8">
     <cfRule type="duplicateValues" dxfId="11" priority="1"/>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1" xr:uid="{C3E3D2A4-5B9F-4913-BDF5-F396382B25DB}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1610,10 +1589,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63457F8-4820-4E80-A0BD-86B1DB623BD5}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1841,6 +1820,17 @@
       </c>
       <c r="C20" t="s">
         <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2011,7 +2001,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/objectLocator/Common.xlsx
+++ b/src/main/resources/objectLocator/Common.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF0C6E2-F35C-485E-B429-892950E186E2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613802F4-04ED-42AD-9433-F89FF0A55753}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RecurringPayment" sheetId="12" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="195">
   <si>
     <t>ObjReference</t>
   </si>
@@ -587,6 +587,30 @@
   </si>
   <si>
     <t>//div[(@id='id_376368_C_ctl01_ucPSPC_gvPropertyContracts')]</t>
+  </si>
+  <si>
+    <t>searchOption</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'ddlSearchOptions')]</t>
+  </si>
+  <si>
+    <t>tbRPayment</t>
+  </si>
+  <si>
+    <t>//div[contains(@id,"grdRecurringPaymentsReceivables_")]/div[2]/div</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>//*[@class='expandAll']</t>
+  </si>
+  <si>
+    <t>tbSpace</t>
+  </si>
+  <si>
+    <t>//div[(@id='id_376367_C_ctl01_ucPSS_gvSuites_GridData')]</t>
   </si>
 </sst>
 </file>
@@ -688,7 +712,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -720,7 +744,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1134,7 +1157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD51E865-2458-4A55-AA79-2C102593FD0A}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1382,7 +1405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -1589,10 +1612,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63457F8-4820-4E80-A0BD-86B1DB623BD5}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1823,14 +1846,25 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="A21" t="s">
         <v>185</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="13" t="s">
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
         <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>193</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -1998,17 +2032,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F63B57-EF66-439D-B48A-4F7B8AB73CB4}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="57.140625" customWidth="1"/>
+    <col min="3" max="3" width="64.7109375" customWidth="1"/>
     <col min="4" max="4" width="56.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2185,6 +2219,28 @@
       </c>
       <c r="C14" t="s">
         <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>191</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2198,10 +2254,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E6D20C-25AD-4167-A7E6-F426B5200648}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2250,151 +2306,163 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>115</v>
+      <c r="C7" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D8" t="s">
-        <v>118</v>
+        <v>10</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>120</v>
+      </c>
+      <c r="D10" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D13" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D14" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>139</v>
       </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
         <v>137</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>138</v>
       </c>
     </row>

--- a/src/main/resources/objectLocator/Common.xlsx
+++ b/src/main/resources/objectLocator/Common.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613802F4-04ED-42AD-9433-F89FF0A55753}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86333142-43D3-4955-BBA5-32168D800BCE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RecurringPayment" sheetId="12" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="197">
   <si>
     <t>ObjReference</t>
   </si>
@@ -568,9 +568,6 @@
     <t>tbProperty</t>
   </si>
   <si>
-    <t>//div[contains(@id,'gridProperty')]</t>
-  </si>
-  <si>
     <t>propertyGroup1</t>
   </si>
   <si>
@@ -586,9 +583,6 @@
     <t>tbLease</t>
   </si>
   <si>
-    <t>//div[(@id='id_376368_C_ctl01_ucPSPC_gvPropertyContracts')]</t>
-  </si>
-  <si>
     <t>searchOption</t>
   </si>
   <si>
@@ -598,9 +592,6 @@
     <t>tbRPayment</t>
   </si>
   <si>
-    <t>//div[contains(@id,"grdRecurringPaymentsReceivables_")]/div[2]/div</t>
-  </si>
-  <si>
     <t>link</t>
   </si>
   <si>
@@ -610,7 +601,22 @@
     <t>tbSpace</t>
   </si>
   <si>
-    <t>//div[(@id='id_376367_C_ctl01_ucPSS_gvSuites_GridData')]</t>
+    <t>//*[@id='gridProperty']</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>btnDelete</t>
+  </si>
+  <si>
+    <t>//*[@title="Contracts"]</t>
+  </si>
+  <si>
+    <t>//*[@title="Suites"]</t>
+  </si>
+  <si>
+    <t>//*[@title="Recurring Payments/Receivables"]</t>
   </si>
 </sst>
 </file>
@@ -1157,7 +1163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD51E865-2458-4A55-AA79-2C102593FD0A}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1552,7 +1558,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1612,10 +1618,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63457F8-4820-4E80-A0BD-86B1DB623BD5}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1759,7 +1765,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -1770,7 +1776,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -1781,7 +1787,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -1842,29 +1848,40 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>192</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
         <v>193</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -1872,6 +1889,7 @@
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2034,8 +2052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F63B57-EF66-439D-B48A-4F7B8AB73CB4}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2176,7 +2194,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -2223,24 +2241,24 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -2306,13 +2324,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D4" s="9"/>
     </row>

--- a/src/main/resources/objectLocator/Common.xlsx
+++ b/src/main/resources/objectLocator/Common.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613802F4-04ED-42AD-9433-F89FF0A55753}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F3F2E6-8FEE-4EDD-A4C0-16390A250FBA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RecurringPayment" sheetId="12" r:id="rId1"/>
@@ -568,9 +568,6 @@
     <t>tbProperty</t>
   </si>
   <si>
-    <t>//div[contains(@id,'gridProperty')]</t>
-  </si>
-  <si>
     <t>propertyGroup1</t>
   </si>
   <si>
@@ -611,6 +608,9 @@
   </si>
   <si>
     <t>//div[(@id='id_376367_C_ctl01_ucPSS_gvSuites_GridData')]</t>
+  </si>
+  <si>
+    <t>//div[@id='gridProperty']</t>
   </si>
 </sst>
 </file>
@@ -1157,7 +1157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD51E865-2458-4A55-AA79-2C102593FD0A}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1614,8 +1614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63457F8-4820-4E80-A0BD-86B1DB623BD5}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1759,7 +1759,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -1770,7 +1770,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -1781,7 +1781,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -1842,29 +1842,29 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>184</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
         <v>185</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>192</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
         <v>193</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2176,7 +2176,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -2223,24 +2223,24 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
         <v>189</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>190</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
         <v>191</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
-        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2306,13 +2306,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>187</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>188</v>
       </c>
       <c r="D4" s="9"/>
     </row>

--- a/src/main/resources/objectLocator/Common.xlsx
+++ b/src/main/resources/objectLocator/Common.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86333142-43D3-4955-BBA5-32168D800BCE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB5F9E3-D525-4855-8695-69750F8FEB43}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RecurringPayment" sheetId="12" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="200">
   <si>
     <t>ObjReference</t>
   </si>
@@ -617,6 +617,15 @@
   </si>
   <si>
     <t>//*[@title="Recurring Payments/Receivables"]</t>
+  </si>
+  <si>
+    <t>header</t>
+  </si>
+  <si>
+    <t>//*[@id='amt-app-header']</t>
+  </si>
+  <si>
+    <t>//button[text()='Delete']</t>
   </si>
 </sst>
 </file>
@@ -1621,7 +1630,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2050,10 +2059,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F63B57-EF66-439D-B48A-4F7B8AB73CB4}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2259,6 +2268,28 @@
       </c>
       <c r="C16" t="s">
         <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>197</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>192</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/objectLocator/Common.xlsx
+++ b/src/main/resources/objectLocator/Common.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB5F9E3-D525-4855-8695-69750F8FEB43}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F712D2D3-5587-4B40-AF14-29901D52B807}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RecurringPayment" sheetId="12" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="206">
   <si>
     <t>ObjReference</t>
   </si>
@@ -626,6 +626,24 @@
   </si>
   <si>
     <t>//button[text()='Delete']</t>
+  </si>
+  <si>
+    <t>//*[contains(@aria-owns,'CodeTypeID_listbox')]</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'CodeTypeID_listbox')]</t>
+  </si>
+  <si>
+    <t>//*[contains(@aria-owns,'ContractTypeID_listbox')]</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'ContractTypeID_listbox')]</t>
+  </si>
+  <si>
+    <t>selectContract</t>
+  </si>
+  <si>
+    <t>//*[@id='selectContract_Ok']</t>
   </si>
 </sst>
 </file>
@@ -2059,10 +2077,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F63B57-EF66-439D-B48A-4F7B8AB73CB4}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2270,7 +2288,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>197</v>
       </c>
@@ -2281,7 +2299,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>192</v>
       </c>
@@ -2290,6 +2308,45 @@
       </c>
       <c r="C18" t="s">
         <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>200</v>
+      </c>
+      <c r="D19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>202</v>
+      </c>
+      <c r="D20" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>204</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/objectLocator/Common.xlsx
+++ b/src/main/resources/objectLocator/Common.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86333142-43D3-4955-BBA5-32168D800BCE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F54A4F-1F6B-4C81-B7EA-456C6B41C0C3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RecurringPayment" sheetId="12" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="199">
   <si>
     <t>ObjReference</t>
   </si>
@@ -617,6 +617,12 @@
   </si>
   <si>
     <t>//*[@title="Recurring Payments/Receivables"]</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'_ddlChartType')]</t>
+  </si>
+  <si>
+    <t>chartType</t>
   </si>
 </sst>
 </file>
@@ -1618,10 +1624,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63457F8-4820-4E80-A0BD-86B1DB623BD5}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1882,6 +1888,17 @@
       </c>
       <c r="C23" t="s">
         <v>193</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>198</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -2052,8 +2069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F63B57-EF66-439D-B48A-4F7B8AB73CB4}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/objectLocator/Common.xlsx
+++ b/src/main/resources/objectLocator/Common.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F712D2D3-5587-4B40-AF14-29901D52B807}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92FFC7D-EB90-4AF1-91B3-E5AAC5182373}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RecurringPayment" sheetId="12" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="209">
   <si>
     <t>ObjReference</t>
   </si>
@@ -644,6 +644,15 @@
   </si>
   <si>
     <t>//*[@id='selectContract_Ok']</t>
+  </si>
+  <si>
+    <t>createPropertyTitle</t>
+  </si>
+  <si>
+    <t>//*[@id="lblPageTitle"]</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'lblPropertyCodeValue')]</t>
   </si>
 </sst>
 </file>
@@ -1645,10 +1654,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63457F8-4820-4E80-A0BD-86B1DB623BD5}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1909,6 +1918,28 @@
       </c>
       <c r="C23" t="s">
         <v>193</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>206</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -2079,7 +2110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F63B57-EF66-439D-B48A-4F7B8AB73CB4}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/objectLocator/Common.xlsx
+++ b/src/main/resources/objectLocator/Common.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6507AB35-27D6-4815-B50F-77FE2C10CFD6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E410CB-4FE9-4B75-A5EB-7007B05B714C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RecurringPayment" sheetId="12" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="213">
   <si>
     <t>ObjReference</t>
   </si>
@@ -661,7 +661,10 @@
     <t>//*[@id="lblPageTitle"]</t>
   </si>
   <si>
-    <t>//*[contains(@id,'lblPropertyCodeValue')]</t>
+    <t>propertyCodeCheck</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,"_ucPS_pnlContainer")]</t>
   </si>
 </sst>
 </file>
@@ -1668,8 +1671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63457F8-4820-4E80-A0BD-86B1DB623BD5}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1956,13 +1959,13 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>211</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -2416,7 +2419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E6D20C-25AD-4167-A7E6-F426B5200648}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
